--- a/Santanu/28 March/Manual OutPut Log.xlsx
+++ b/Santanu/28 March/Manual OutPut Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Upwork me as ORS\OWFCR\Santanu\28 March\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61886B48-6132-434D-BABD-7CA20EBDBFB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E91DF31-2C89-4093-823A-34970725B58C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -210,6 +210,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -225,19 +234,10 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -523,7 +523,7 @@
   <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -553,85 +553,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="19" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="21" t="s">
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="20" t="s">
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="18" t="s">
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
     </row>
     <row r="2" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23"/>
-      <c r="B2" s="22" t="s">
+      <c r="A2" s="15"/>
+      <c r="B2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="19" t="s">
+      <c r="E2" s="14"/>
+      <c r="F2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19" t="s">
+      <c r="G2" s="16"/>
+      <c r="H2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="21" t="s">
+      <c r="I2" s="16"/>
+      <c r="J2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21" t="s">
+      <c r="K2" s="23"/>
+      <c r="L2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="21"/>
-      <c r="N2" s="14" t="s">
+      <c r="M2" s="23"/>
+      <c r="N2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="15"/>
-      <c r="P2" s="14" t="s">
+      <c r="O2" s="18"/>
+      <c r="P2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="16" t="s">
+      <c r="Q2" s="18"/>
+      <c r="R2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="17"/>
-      <c r="T2" s="16" t="s">
+      <c r="S2" s="20"/>
+      <c r="T2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="17"/>
+      <c r="U2" s="20"/>
     </row>
     <row r="3" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
@@ -697,8 +697,12 @@
       <c r="A4" s="7">
         <v>10</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
+      <c r="B4" s="8">
+        <v>31519955.031803198</v>
+      </c>
+      <c r="C4" s="8">
+        <v>2.48300004005432</v>
+      </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="9"/>
@@ -713,8 +717,12 @@
       <c r="O4" s="11"/>
       <c r="P4" s="11"/>
       <c r="Q4" s="11"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
+      <c r="R4" s="12">
+        <v>31519955.031803198</v>
+      </c>
+      <c r="S4" s="12">
+        <v>0.31999993324279702</v>
+      </c>
       <c r="T4" s="12"/>
       <c r="U4" s="12"/>
     </row>
@@ -965,11 +973,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="F2:G2"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="R1:U1"/>
@@ -981,6 +984,11 @@
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="R2:S2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
